--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Dcn-Tlr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Dcn-Tlr2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1.233789666666667</v>
+      </c>
+      <c r="H2">
+        <v>3.701369</v>
+      </c>
+      <c r="I2">
+        <v>0.0001664233864291757</v>
+      </c>
+      <c r="J2">
+        <v>0.0001664233864291757</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="L2">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G2">
-        <v>6.615074666666666</v>
-      </c>
-      <c r="H2">
-        <v>19.845224</v>
-      </c>
-      <c r="I2">
-        <v>0.0008916467884469989</v>
-      </c>
-      <c r="J2">
-        <v>0.0008916467884469988</v>
-      </c>
-      <c r="K2">
-        <v>3</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
       <c r="M2">
-        <v>57.24915866666667</v>
+        <v>0.1465046666666667</v>
       </c>
       <c r="N2">
-        <v>171.747476</v>
+        <v>0.439514</v>
       </c>
       <c r="O2">
-        <v>0.9704198736548433</v>
+        <v>0.07745172725947863</v>
       </c>
       <c r="P2">
-        <v>0.9704198736548435</v>
+        <v>0.07745172725947864</v>
       </c>
       <c r="Q2">
-        <v>378.707459183847</v>
+        <v>0.1807559438517778</v>
       </c>
       <c r="R2">
-        <v>3408.367132654624</v>
+        <v>1.626803494666</v>
       </c>
       <c r="S2">
-        <v>0.0008652717637894835</v>
+        <v>1.288977873531134E-05</v>
       </c>
       <c r="T2">
-        <v>0.0008652717637894836</v>
+        <v>1.288977873531134E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>6.615074666666666</v>
+        <v>1.233789666666667</v>
       </c>
       <c r="H3">
-        <v>19.845224</v>
+        <v>3.701369</v>
       </c>
       <c r="I3">
-        <v>0.0008916467884469989</v>
+        <v>0.0001664233864291757</v>
       </c>
       <c r="J3">
-        <v>0.0008916467884469988</v>
+        <v>0.0001664233864291757</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>1.569166</v>
       </c>
       <c r="N3">
-        <v>4.707497999999999</v>
+        <v>4.707498</v>
       </c>
       <c r="O3">
-        <v>0.02659864191768633</v>
+        <v>0.8295614045753745</v>
       </c>
       <c r="P3">
-        <v>0.02659864191768633</v>
+        <v>0.8295614045753745</v>
       </c>
       <c r="Q3">
-        <v>10.38015025439466</v>
+        <v>1.936020796084667</v>
       </c>
       <c r="R3">
-        <v>93.42135228955198</v>
+        <v>17.424187164762</v>
       </c>
       <c r="S3">
-        <v>2.371659364295674E-05</v>
+        <v>0.0001380584182003773</v>
       </c>
       <c r="T3">
-        <v>2.371659364295674E-05</v>
+        <v>0.0001380584182003773</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>6.615074666666666</v>
+        <v>1.233789666666667</v>
       </c>
       <c r="H4">
-        <v>19.845224</v>
+        <v>3.701369</v>
       </c>
       <c r="I4">
-        <v>0.0008916467884469989</v>
+        <v>0.0001664233864291757</v>
       </c>
       <c r="J4">
-        <v>0.0008916467884469988</v>
+        <v>0.0001664233864291757</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,22 +682,22 @@
         <v>0.527671</v>
       </c>
       <c r="O4">
-        <v>0.002981484427470275</v>
+        <v>0.09298686816514685</v>
       </c>
       <c r="P4">
-        <v>0.002981484427470276</v>
+        <v>0.09298686816514684</v>
       </c>
       <c r="Q4">
-        <v>1.163527688144889</v>
+        <v>0.2170116757332222</v>
       </c>
       <c r="R4">
-        <v>10.471749193304</v>
+        <v>1.953105081599</v>
       </c>
       <c r="S4">
-        <v>2.65843101455861E-06</v>
+        <v>1.547518949348705E-05</v>
       </c>
       <c r="T4">
-        <v>2.65843101455861E-06</v>
+        <v>1.547518949348705E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>21857.103027</v>
       </c>
       <c r="I5">
-        <v>0.9820406017477925</v>
+        <v>0.9827534361704352</v>
       </c>
       <c r="J5">
-        <v>0.9820406017477923</v>
+        <v>0.9827534361704352</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>57.24915866666667</v>
+        <v>0.1465046666666667</v>
       </c>
       <c r="N5">
-        <v>171.747476</v>
+        <v>0.439514</v>
       </c>
       <c r="O5">
-        <v>0.9704198736548433</v>
+        <v>0.07745172725947863</v>
       </c>
       <c r="P5">
-        <v>0.9704198736548435</v>
+        <v>0.07745172725947864</v>
       </c>
       <c r="Q5">
-        <v>417100.2530621344</v>
+        <v>1067.389197756542</v>
       </c>
       <c r="R5">
-        <v>3753902.27755921</v>
+        <v>9606.502779808879</v>
       </c>
       <c r="S5">
-        <v>0.9529917166720191</v>
+        <v>0.07611595110158799</v>
       </c>
       <c r="T5">
-        <v>0.9529917166720191</v>
+        <v>0.076115951101588</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>21857.103027</v>
       </c>
       <c r="I6">
-        <v>0.9820406017477925</v>
+        <v>0.9827534361704352</v>
       </c>
       <c r="J6">
-        <v>0.9820406017477923</v>
+        <v>0.9827534361704352</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,25 +803,25 @@
         <v>1.569166</v>
       </c>
       <c r="N6">
-        <v>4.707497999999999</v>
+        <v>4.707498</v>
       </c>
       <c r="O6">
-        <v>0.02659864191768633</v>
+        <v>0.8295614045753745</v>
       </c>
       <c r="P6">
-        <v>0.02659864191768633</v>
+        <v>0.8295614045753745</v>
       </c>
       <c r="Q6">
         <v>11432.47430948849</v>
       </c>
       <c r="R6">
-        <v>102892.2687853964</v>
+        <v>102892.2687853965</v>
       </c>
       <c r="S6">
-        <v>0.02612094631451874</v>
+        <v>0.8152543208608219</v>
       </c>
       <c r="T6">
-        <v>0.02612094631451874</v>
+        <v>0.8152543208608219</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>21857.103027</v>
       </c>
       <c r="I7">
-        <v>0.9820406017477925</v>
+        <v>0.9827534361704352</v>
       </c>
       <c r="J7">
-        <v>0.9820406017477923</v>
+        <v>0.9827534361704352</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,10 +868,10 @@
         <v>0.527671</v>
       </c>
       <c r="O7">
-        <v>0.002981484427470275</v>
+        <v>0.09298686816514685</v>
       </c>
       <c r="P7">
-        <v>0.002981484427470276</v>
+        <v>0.09298686816514684</v>
       </c>
       <c r="Q7">
         <v>1281.484379040013</v>
@@ -880,10 +880,10 @@
         <v>11533.35941136012</v>
       </c>
       <c r="S7">
-        <v>0.002927938761254582</v>
+        <v>0.09138316420802532</v>
       </c>
       <c r="T7">
-        <v>0.002927938761254582</v>
+        <v>0.09138316420802531</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>379.873909</v>
       </c>
       <c r="I8">
-        <v>0.01706775146376063</v>
+        <v>0.01708014044313564</v>
       </c>
       <c r="J8">
-        <v>0.01706775146376063</v>
+        <v>0.01708014044313564</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>57.24915866666667</v>
+        <v>0.1465046666666667</v>
       </c>
       <c r="N8">
-        <v>171.747476</v>
+        <v>0.439514</v>
       </c>
       <c r="O8">
-        <v>0.9704198736548433</v>
+        <v>0.07745172725947863</v>
       </c>
       <c r="P8">
-        <v>0.9704198736548435</v>
+        <v>0.07745172725947864</v>
       </c>
       <c r="Q8">
-        <v>7249.153896555966</v>
+        <v>18.55110013780289</v>
       </c>
       <c r="R8">
-        <v>65242.38506900369</v>
+        <v>166.959901240226</v>
       </c>
       <c r="S8">
-        <v>0.01656288521903486</v>
+        <v>0.001322886379155332</v>
       </c>
       <c r="T8">
-        <v>0.01656288521903486</v>
+        <v>0.001322886379155333</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>379.873909</v>
       </c>
       <c r="I9">
-        <v>0.01706775146376063</v>
+        <v>0.01708014044313564</v>
       </c>
       <c r="J9">
-        <v>0.01706775146376063</v>
+        <v>0.01708014044313564</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,13 +989,13 @@
         <v>1.569166</v>
       </c>
       <c r="N9">
-        <v>4.707497999999999</v>
+        <v>4.707498</v>
       </c>
       <c r="O9">
-        <v>0.02659864191768633</v>
+        <v>0.8295614045753745</v>
       </c>
       <c r="P9">
-        <v>0.02659864191768633</v>
+        <v>0.8295614045753745</v>
       </c>
       <c r="Q9">
         <v>198.6950740966313</v>
@@ -1004,10 +1004,10 @@
         <v>1788.255666869682</v>
       </c>
       <c r="S9">
-        <v>0.0004539790095246357</v>
+        <v>0.01416902529635226</v>
       </c>
       <c r="T9">
-        <v>0.0004539790095246357</v>
+        <v>0.01416902529635226</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>379.873909</v>
       </c>
       <c r="I10">
-        <v>0.01706775146376063</v>
+        <v>0.01708014044313564</v>
       </c>
       <c r="J10">
-        <v>0.01706775146376063</v>
+        <v>0.01708014044313564</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,10 +1054,10 @@
         <v>0.527671</v>
       </c>
       <c r="O10">
-        <v>0.002981484427470275</v>
+        <v>0.09298686816514685</v>
       </c>
       <c r="P10">
-        <v>0.002981484427470276</v>
+        <v>0.09298686816514684</v>
       </c>
       <c r="Q10">
         <v>22.27204949288211</v>
@@ -1066,10 +1066,10 @@
         <v>200.448445435939</v>
       </c>
       <c r="S10">
-        <v>5.088723520113531E-05</v>
+        <v>0.001588228767628047</v>
       </c>
       <c r="T10">
-        <v>5.088723520113531E-05</v>
+        <v>0.001588228767628047</v>
       </c>
     </row>
   </sheetData>
